--- a/data/pca/factorExposure/factorExposure_2014-09-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.002195427493310406</v>
+        <v>0.01817495511417157</v>
       </c>
       <c r="C2">
-        <v>0.1150768409256956</v>
+        <v>-0.07095586763620533</v>
       </c>
       <c r="D2">
-        <v>-0.002635741257577866</v>
+        <v>0.0330093066446681</v>
       </c>
       <c r="E2">
-        <v>0.2320663074698616</v>
+        <v>-0.05437499631550993</v>
       </c>
       <c r="F2">
-        <v>0.01397426406949973</v>
+        <v>-0.1507873190720924</v>
       </c>
       <c r="G2">
-        <v>-0.08139200440367976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.01170959867105503</v>
+      </c>
+      <c r="H2">
+        <v>-0.06039349701801893</v>
+      </c>
+      <c r="I2">
+        <v>0.02054701960937401</v>
+      </c>
+      <c r="J2">
+        <v>0.01767082486663611</v>
+      </c>
+      <c r="K2">
+        <v>-0.1923792282025501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01139977140414303</v>
+        <v>0.01729792989517683</v>
       </c>
       <c r="C4">
-        <v>0.1687096317589737</v>
+        <v>-0.1444886744647917</v>
       </c>
       <c r="D4">
-        <v>-0.01822876456639622</v>
+        <v>0.06501289794833932</v>
       </c>
       <c r="E4">
-        <v>0.06211233643148831</v>
+        <v>0.02556671627918412</v>
       </c>
       <c r="F4">
-        <v>-0.08397315990165424</v>
+        <v>-0.06395830129476313</v>
       </c>
       <c r="G4">
-        <v>-0.01214617159050263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01449236930888663</v>
+      </c>
+      <c r="H4">
+        <v>-0.09012428116080598</v>
+      </c>
+      <c r="I4">
+        <v>0.1010074993023491</v>
+      </c>
+      <c r="J4">
+        <v>0.05313769015933868</v>
+      </c>
+      <c r="K4">
+        <v>-0.1635026411295991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02253456535902354</v>
+        <v>0.03780650703493981</v>
       </c>
       <c r="C6">
-        <v>0.07913237902106675</v>
+        <v>-0.08742720627858129</v>
       </c>
       <c r="D6">
-        <v>-0.0509861443160655</v>
+        <v>0.03054000797351742</v>
       </c>
       <c r="E6">
-        <v>0.06948758598340922</v>
+        <v>-0.04588179403177638</v>
       </c>
       <c r="F6">
-        <v>-0.01869532469841344</v>
+        <v>-0.02738034786204696</v>
       </c>
       <c r="G6">
-        <v>0.01407305104726051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0408949532219325</v>
+      </c>
+      <c r="H6">
+        <v>-0.02851354844092786</v>
+      </c>
+      <c r="I6">
+        <v>0.002318650158821711</v>
+      </c>
+      <c r="J6">
+        <v>-0.09129648729714039</v>
+      </c>
+      <c r="K6">
+        <v>-0.07611876744420475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.002102400917163189</v>
+        <v>0.01793175091681093</v>
       </c>
       <c r="C7">
-        <v>0.06683144306058476</v>
+        <v>-0.073500253304529</v>
       </c>
       <c r="D7">
-        <v>-0.03247855534950411</v>
+        <v>0.03026907975873963</v>
       </c>
       <c r="E7">
-        <v>0.02246910043377136</v>
+        <v>0.01585930605997027</v>
       </c>
       <c r="F7">
-        <v>-0.04899593503291413</v>
+        <v>0.003930322904053717</v>
       </c>
       <c r="G7">
-        <v>0.01541119412518533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0369882052876084</v>
+      </c>
+      <c r="H7">
+        <v>-0.09735756914094293</v>
+      </c>
+      <c r="I7">
+        <v>0.02629224014926594</v>
+      </c>
+      <c r="J7">
+        <v>-0.0003910177021218639</v>
+      </c>
+      <c r="K7">
+        <v>-0.03622120616141636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01136677335337144</v>
+        <v>-9.234508439836247e-05</v>
       </c>
       <c r="C8">
-        <v>0.07614971143293929</v>
+        <v>-0.06174179990411622</v>
       </c>
       <c r="D8">
-        <v>-0.02835558982674184</v>
+        <v>0.04459069690779758</v>
       </c>
       <c r="E8">
-        <v>0.07640678132920663</v>
+        <v>-0.008415867033297582</v>
       </c>
       <c r="F8">
-        <v>-0.03748540702247863</v>
+        <v>-0.06068968962279958</v>
       </c>
       <c r="G8">
-        <v>-0.0267252052005925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01984284852043817</v>
+      </c>
+      <c r="H8">
+        <v>-0.06123103158295713</v>
+      </c>
+      <c r="I8">
+        <v>0.01440276968237676</v>
+      </c>
+      <c r="J8">
+        <v>-0.002569346166183732</v>
+      </c>
+      <c r="K8">
+        <v>0.007074558269767877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.004155509877036051</v>
+        <v>0.01331406559314335</v>
       </c>
       <c r="C9">
-        <v>0.1235725649039867</v>
+        <v>-0.1025524553656994</v>
       </c>
       <c r="D9">
-        <v>-0.0346652102049382</v>
+        <v>0.04534972769091171</v>
       </c>
       <c r="E9">
-        <v>0.02664090841741865</v>
+        <v>0.004120512570200239</v>
       </c>
       <c r="F9">
-        <v>-0.03580117703250645</v>
+        <v>-0.03004667749096649</v>
       </c>
       <c r="G9">
-        <v>0.03423233657921426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.003897448987038214</v>
+      </c>
+      <c r="H9">
+        <v>-0.08929037853267099</v>
+      </c>
+      <c r="I9">
+        <v>0.06671865532087692</v>
+      </c>
+      <c r="J9">
+        <v>0.01317117146131558</v>
+      </c>
+      <c r="K9">
+        <v>-0.07509573027789175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2791525283610585</v>
+        <v>0.2475181892671083</v>
       </c>
       <c r="C10">
-        <v>-0.07618076910526055</v>
+        <v>0.08880480008749354</v>
       </c>
       <c r="D10">
-        <v>0.02146777136329379</v>
+        <v>-0.005711303246245001</v>
       </c>
       <c r="E10">
-        <v>-0.03627770089550109</v>
+        <v>-0.01179076991586717</v>
       </c>
       <c r="F10">
-        <v>-0.002630254814432179</v>
+        <v>0.001221475307768224</v>
       </c>
       <c r="G10">
-        <v>0.02450629259734265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0245592349691594</v>
+      </c>
+      <c r="H10">
+        <v>-0.03268665972482004</v>
+      </c>
+      <c r="I10">
+        <v>0.01414871276810607</v>
+      </c>
+      <c r="J10">
+        <v>0.1870414856852976</v>
+      </c>
+      <c r="K10">
+        <v>0.09911573022616109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.003251144272219248</v>
+        <v>0.01612666220910354</v>
       </c>
       <c r="C11">
-        <v>0.067656624746448</v>
+        <v>-0.08236677752951747</v>
       </c>
       <c r="D11">
-        <v>-0.02537191527112844</v>
+        <v>0.03904665140213387</v>
       </c>
       <c r="E11">
-        <v>-0.01778942540234396</v>
+        <v>0.002996553631355468</v>
       </c>
       <c r="F11">
-        <v>-0.01958275538593569</v>
+        <v>0.01502114281089156</v>
       </c>
       <c r="G11">
-        <v>0.04014190176346744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.008508401210156084</v>
+      </c>
+      <c r="H11">
+        <v>-0.02829308480143665</v>
+      </c>
+      <c r="I11">
+        <v>0.01938678379471322</v>
+      </c>
+      <c r="J11">
+        <v>-0.02095430967359332</v>
+      </c>
+      <c r="K11">
+        <v>0.01614014384365736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.002197892324522484</v>
+        <v>0.0158291720122874</v>
       </c>
       <c r="C12">
-        <v>0.04854962983177985</v>
+        <v>-0.0551129970271694</v>
       </c>
       <c r="D12">
-        <v>-0.02843985173681315</v>
+        <v>0.02373712713783082</v>
       </c>
       <c r="E12">
-        <v>-0.008200019430853354</v>
+        <v>-0.01868987876238705</v>
       </c>
       <c r="F12">
-        <v>0.004854988086826263</v>
+        <v>0.01470922700613144</v>
       </c>
       <c r="G12">
-        <v>0.06145327508007943</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02630577817595782</v>
+      </c>
+      <c r="H12">
+        <v>-0.02567059102279969</v>
+      </c>
+      <c r="I12">
+        <v>0.01449009893059337</v>
+      </c>
+      <c r="J12">
+        <v>-0.01474987382079909</v>
+      </c>
+      <c r="K12">
+        <v>0.002668210472980768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.0113668242480736</v>
+        <v>0.005288278569745434</v>
       </c>
       <c r="C13">
-        <v>0.1225853100276225</v>
+        <v>-0.1205236659904571</v>
       </c>
       <c r="D13">
-        <v>-0.05309959756395621</v>
+        <v>0.04112737908357585</v>
       </c>
       <c r="E13">
-        <v>0.05909200150707223</v>
+        <v>-0.1194608487646518</v>
       </c>
       <c r="F13">
-        <v>0.01234445677226663</v>
+        <v>-0.1045497135178221</v>
       </c>
       <c r="G13">
-        <v>0.1717469865688331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1227190245067672</v>
+      </c>
+      <c r="H13">
+        <v>-0.1377642329007386</v>
+      </c>
+      <c r="I13">
+        <v>-0.1622204592211299</v>
+      </c>
+      <c r="J13">
+        <v>0.1586244040744499</v>
+      </c>
+      <c r="K13">
+        <v>0.1928693639862931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.006944726372271785</v>
+        <v>0.01953261255343244</v>
       </c>
       <c r="C14">
-        <v>0.07220830560681699</v>
+        <v>-0.07526563096698616</v>
       </c>
       <c r="D14">
-        <v>-0.02961308881260885</v>
+        <v>0.05004070787431012</v>
       </c>
       <c r="E14">
-        <v>0.03760142488427685</v>
+        <v>-0.04895295242011526</v>
       </c>
       <c r="F14">
-        <v>0.0003814234943093377</v>
+        <v>0.002717699321370734</v>
       </c>
       <c r="G14">
-        <v>0.06472097772232216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.07911649090961723</v>
+      </c>
+      <c r="H14">
+        <v>-0.2056453000986666</v>
+      </c>
+      <c r="I14">
+        <v>-0.0009194046540051367</v>
+      </c>
+      <c r="J14">
+        <v>-0.02523253246201085</v>
+      </c>
+      <c r="K14">
+        <v>0.1147113012456943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.004325849413637722</v>
+        <v>0.003449529437919686</v>
       </c>
       <c r="C15">
-        <v>0.1014392786798437</v>
+        <v>-0.08315827609232378</v>
       </c>
       <c r="D15">
-        <v>-0.04378414647102369</v>
+        <v>0.03659742002998907</v>
       </c>
       <c r="E15">
-        <v>0.05291359056820962</v>
+        <v>0.0008143207186757517</v>
       </c>
       <c r="F15">
-        <v>-0.03029137257604185</v>
+        <v>-0.02426894932423959</v>
       </c>
       <c r="G15">
-        <v>0.02996142227108846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02452191277611509</v>
+      </c>
+      <c r="H15">
+        <v>-0.09450266012664389</v>
+      </c>
+      <c r="I15">
+        <v>0.02864057719347034</v>
+      </c>
+      <c r="J15">
+        <v>-0.01846740742413343</v>
+      </c>
+      <c r="K15">
+        <v>0.06895012800371571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.007485716380631467</v>
+        <v>0.01518334393021055</v>
       </c>
       <c r="C16">
-        <v>0.05788684581635742</v>
+        <v>-0.06207672583660411</v>
       </c>
       <c r="D16">
-        <v>-0.01895611165754833</v>
+        <v>0.02711713742527998</v>
       </c>
       <c r="E16">
-        <v>-0.01070649198550192</v>
+        <v>0.0001293365093281906</v>
       </c>
       <c r="F16">
-        <v>0.0002227318839761231</v>
+        <v>0.009697433416638609</v>
       </c>
       <c r="G16">
-        <v>0.03183783856810223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.008963850554000259</v>
+      </c>
+      <c r="H16">
+        <v>-0.02088129156288733</v>
+      </c>
+      <c r="I16">
+        <v>0.01708655390481963</v>
+      </c>
+      <c r="J16">
+        <v>-0.0152627361808797</v>
+      </c>
+      <c r="K16">
+        <v>-0.001091076170694994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01061618482528751</v>
+        <v>0.01467740572002935</v>
       </c>
       <c r="C20">
-        <v>0.09108227892224724</v>
+        <v>-0.0867764396968001</v>
       </c>
       <c r="D20">
-        <v>-0.02607425600308056</v>
+        <v>0.02815350455263013</v>
       </c>
       <c r="E20">
-        <v>-0.01366060190208503</v>
+        <v>0.02096880318476901</v>
       </c>
       <c r="F20">
-        <v>-0.04868401253870973</v>
+        <v>0.01043808235456339</v>
       </c>
       <c r="G20">
-        <v>0.08898275140500385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03710870572617538</v>
+      </c>
+      <c r="H20">
+        <v>-0.07261984824330182</v>
+      </c>
+      <c r="I20">
+        <v>0.01889418721205622</v>
+      </c>
+      <c r="J20">
+        <v>-0.01418885387168609</v>
+      </c>
+      <c r="K20">
+        <v>-0.009711782317523045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.01177127029452043</v>
+        <v>0.01202102121690762</v>
       </c>
       <c r="C21">
-        <v>0.09925278532930458</v>
+        <v>-0.07218620944492521</v>
       </c>
       <c r="D21">
-        <v>0.03382256659846522</v>
+        <v>0.02093965875687282</v>
       </c>
       <c r="E21">
-        <v>0.05773044629491455</v>
+        <v>-0.09578293510227695</v>
       </c>
       <c r="F21">
-        <v>0.014733662962081</v>
+        <v>-0.0209680269107783</v>
       </c>
       <c r="G21">
-        <v>0.04667755423980889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02860231277381309</v>
+      </c>
+      <c r="H21">
+        <v>-0.1409742790576854</v>
+      </c>
+      <c r="I21">
+        <v>-0.03839554371134648</v>
+      </c>
+      <c r="J21">
+        <v>0.004904415099432458</v>
+      </c>
+      <c r="K21">
+        <v>0.03863522800068641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.03342008984317874</v>
+        <v>0.006459943210362051</v>
       </c>
       <c r="C22">
-        <v>0.2217597517859116</v>
+        <v>-0.1790554588722681</v>
       </c>
       <c r="D22">
-        <v>0.06743907427939462</v>
+        <v>0.01967508415875865</v>
       </c>
       <c r="E22">
-        <v>0.2656784823507687</v>
+        <v>0.1038483432111471</v>
       </c>
       <c r="F22">
-        <v>-0.2099074471785917</v>
+        <v>-0.5254556581629575</v>
       </c>
       <c r="G22">
-        <v>-0.1607460604044519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.00188993654741423</v>
+      </c>
+      <c r="H22">
+        <v>0.2993221508281567</v>
+      </c>
+      <c r="I22">
+        <v>-0.05825279772741084</v>
+      </c>
+      <c r="J22">
+        <v>-0.01213317083356944</v>
+      </c>
+      <c r="K22">
+        <v>0.188570543363983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.03283646378875071</v>
+        <v>0.01172205116891276</v>
       </c>
       <c r="C23">
-        <v>0.2222008290281425</v>
+        <v>-0.1828170617195974</v>
       </c>
       <c r="D23">
-        <v>0.06718983629252966</v>
+        <v>0.01961982101440703</v>
       </c>
       <c r="E23">
-        <v>0.2620578416509352</v>
+        <v>0.09883655760685733</v>
       </c>
       <c r="F23">
-        <v>-0.2072192480265263</v>
+        <v>-0.509345017342487</v>
       </c>
       <c r="G23">
-        <v>-0.1603357174990608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.002935627094874779</v>
+      </c>
+      <c r="H23">
+        <v>0.2798833436036696</v>
+      </c>
+      <c r="I23">
+        <v>-0.04538992960459896</v>
+      </c>
+      <c r="J23">
+        <v>-0.01435867499129986</v>
+      </c>
+      <c r="K23">
+        <v>0.1779932024339421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.001244548405125919</v>
+        <v>0.01591907674035069</v>
       </c>
       <c r="C24">
-        <v>0.05419050734757235</v>
+        <v>-0.06542242692549534</v>
       </c>
       <c r="D24">
-        <v>-0.03961724317516986</v>
+        <v>0.04017244888252553</v>
       </c>
       <c r="E24">
-        <v>-0.009744908088675529</v>
+        <v>0.002154567024015537</v>
       </c>
       <c r="F24">
-        <v>-0.01612308301730971</v>
+        <v>0.0101139074091171</v>
       </c>
       <c r="G24">
-        <v>0.05341703054957903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02416300821776323</v>
+      </c>
+      <c r="H24">
+        <v>-0.03855122647488496</v>
+      </c>
+      <c r="I24">
+        <v>0.01909110879887675</v>
+      </c>
+      <c r="J24">
+        <v>-0.01729213081872272</v>
+      </c>
+      <c r="K24">
+        <v>0.005782168787302375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.002638913493184526</v>
+        <v>0.01990821101790581</v>
       </c>
       <c r="C25">
-        <v>0.06321119928182745</v>
+        <v>-0.06915103865475879</v>
       </c>
       <c r="D25">
-        <v>-0.01844108779709715</v>
+        <v>0.03173157583874799</v>
       </c>
       <c r="E25">
-        <v>-0.01678545199323126</v>
+        <v>0.00452959308258511</v>
       </c>
       <c r="F25">
-        <v>-0.01304168465708277</v>
+        <v>0.009094355735955555</v>
       </c>
       <c r="G25">
-        <v>0.0504717952215987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01770586077607924</v>
+      </c>
+      <c r="H25">
+        <v>-0.0334036481118313</v>
+      </c>
+      <c r="I25">
+        <v>0.02062605548840878</v>
+      </c>
+      <c r="J25">
+        <v>-0.004234313388328571</v>
+      </c>
+      <c r="K25">
+        <v>0.01766721751515598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.001429546586868309</v>
+        <v>0.02338160194312943</v>
       </c>
       <c r="C26">
-        <v>0.05753872581138814</v>
+        <v>-0.05718441922754745</v>
       </c>
       <c r="D26">
-        <v>-0.05369513864508162</v>
+        <v>0.06367565133966699</v>
       </c>
       <c r="E26">
-        <v>0.01651534298104989</v>
+        <v>0.002054462095344024</v>
       </c>
       <c r="F26">
-        <v>0.00952668788568203</v>
+        <v>0.01933746933434379</v>
       </c>
       <c r="G26">
-        <v>0.02870184066186201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.001912682748374238</v>
+      </c>
+      <c r="H26">
+        <v>-0.09715656375624718</v>
+      </c>
+      <c r="I26">
+        <v>0.06389642423812544</v>
+      </c>
+      <c r="J26">
+        <v>-0.02698376089597333</v>
+      </c>
+      <c r="K26">
+        <v>-0.1134863652004255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3755455806952954</v>
+        <v>0.3158457399683695</v>
       </c>
       <c r="C28">
-        <v>-0.08687140951651036</v>
+        <v>0.1056648615650264</v>
       </c>
       <c r="D28">
-        <v>0.02227157083551382</v>
+        <v>-0.03096063010155114</v>
       </c>
       <c r="E28">
-        <v>-0.07866743700531856</v>
+        <v>-0.01056240647054055</v>
       </c>
       <c r="F28">
-        <v>0.09046514727028761</v>
+        <v>-0.0424424166209706</v>
       </c>
       <c r="G28">
-        <v>-0.03239060570356318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1261360430426464</v>
+      </c>
+      <c r="H28">
+        <v>-0.05349178025001283</v>
+      </c>
+      <c r="I28">
+        <v>-0.07225987598994985</v>
+      </c>
+      <c r="J28">
+        <v>0.2001992134639068</v>
+      </c>
+      <c r="K28">
+        <v>-0.02192508851032416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.005897038911862757</v>
+        <v>0.01385103545222109</v>
       </c>
       <c r="C29">
-        <v>0.07557116884346071</v>
+        <v>-0.08188381977110012</v>
       </c>
       <c r="D29">
-        <v>-0.04627986345644881</v>
+        <v>0.05469113628952112</v>
       </c>
       <c r="E29">
-        <v>0.03477236054352378</v>
+        <v>-0.05251480280083128</v>
       </c>
       <c r="F29">
-        <v>-0.008832802756274608</v>
+        <v>-0.004338710071166969</v>
       </c>
       <c r="G29">
-        <v>0.1024486528257386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1201751592487931</v>
+      </c>
+      <c r="H29">
+        <v>-0.2915414555499585</v>
+      </c>
+      <c r="I29">
+        <v>0.001570515032609048</v>
+      </c>
+      <c r="J29">
+        <v>-0.002487268450430027</v>
+      </c>
+      <c r="K29">
+        <v>0.1758054342424057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02017134201955496</v>
+        <v>0.02939907083095654</v>
       </c>
       <c r="C30">
-        <v>0.1724393318564647</v>
+        <v>-0.1434727715921598</v>
       </c>
       <c r="D30">
-        <v>-0.06064634903042884</v>
+        <v>0.05764489701141114</v>
       </c>
       <c r="E30">
-        <v>0.03522423294097028</v>
+        <v>0.01564469953504349</v>
       </c>
       <c r="F30">
-        <v>-0.05478596462927762</v>
+        <v>-0.06413109917303918</v>
       </c>
       <c r="G30">
-        <v>0.003357822112617757</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.009463045468688371</v>
+      </c>
+      <c r="H30">
+        <v>-0.03773477653499194</v>
+      </c>
+      <c r="I30">
+        <v>0.04070608126620819</v>
+      </c>
+      <c r="J30">
+        <v>-0.03474739358532326</v>
+      </c>
+      <c r="K30">
+        <v>-0.08763371489628398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.001257452173606751</v>
+        <v>0.01474234021667928</v>
       </c>
       <c r="C31">
-        <v>0.05816738354268489</v>
+        <v>-0.08091254675115325</v>
       </c>
       <c r="D31">
-        <v>-0.03494459651793778</v>
+        <v>0.04190665800417879</v>
       </c>
       <c r="E31">
-        <v>-0.01466889316359169</v>
+        <v>-0.003844137647212772</v>
       </c>
       <c r="F31">
-        <v>0.01530195608179569</v>
+        <v>0.002529002410075784</v>
       </c>
       <c r="G31">
-        <v>0.02424073718382291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02302699692200752</v>
+      </c>
+      <c r="H31">
+        <v>-0.03188634026494718</v>
+      </c>
+      <c r="I31">
+        <v>0.02165180513341895</v>
+      </c>
+      <c r="J31">
+        <v>-0.001439848354310395</v>
+      </c>
+      <c r="K31">
+        <v>0.03036899496599264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01767340097455143</v>
+        <v>0.02171860516598227</v>
       </c>
       <c r="C32">
-        <v>0.08683902429662087</v>
+        <v>-0.05200532259596177</v>
       </c>
       <c r="D32">
-        <v>0.008610158646432433</v>
+        <v>0.0232790082782443</v>
       </c>
       <c r="E32">
-        <v>0.1589857162176248</v>
+        <v>-0.05915994324082174</v>
       </c>
       <c r="F32">
-        <v>-0.03576182236721279</v>
+        <v>-0.1022995350120947</v>
       </c>
       <c r="G32">
-        <v>0.0682072857111175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.06706613377924002</v>
+      </c>
+      <c r="H32">
+        <v>-0.1676899093157638</v>
+      </c>
+      <c r="I32">
+        <v>-0.1155265110932885</v>
+      </c>
+      <c r="J32">
+        <v>0.2387186941493182</v>
+      </c>
+      <c r="K32">
+        <v>-0.001007417336373026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.0124745530455183</v>
+        <v>0.01687295698815334</v>
       </c>
       <c r="C33">
-        <v>0.08925823234639373</v>
+        <v>-0.1053250342108602</v>
       </c>
       <c r="D33">
-        <v>-0.06272765984294509</v>
+        <v>0.05243877275234305</v>
       </c>
       <c r="E33">
-        <v>0.01482050287489788</v>
+        <v>0.002952345003031882</v>
       </c>
       <c r="F33">
-        <v>0.00195206899174059</v>
+        <v>-0.01216980606138932</v>
       </c>
       <c r="G33">
-        <v>0.0325329738496968</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02386358694453738</v>
+      </c>
+      <c r="H33">
+        <v>-0.05220398048825245</v>
+      </c>
+      <c r="I33">
+        <v>0.02115757487487251</v>
+      </c>
+      <c r="J33">
+        <v>0.02547514414846598</v>
+      </c>
+      <c r="K33">
+        <v>0.0007150266975428396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.0009004283409914778</v>
+        <v>0.01551659340176877</v>
       </c>
       <c r="C34">
-        <v>0.04597117829767951</v>
+        <v>-0.04813616634370268</v>
       </c>
       <c r="D34">
-        <v>-0.01944903637407839</v>
+        <v>0.01965146889608296</v>
       </c>
       <c r="E34">
-        <v>0.003633253451522877</v>
+        <v>-0.006792974071834834</v>
       </c>
       <c r="F34">
-        <v>0.009140439827509948</v>
+        <v>0.01172648492340875</v>
       </c>
       <c r="G34">
-        <v>0.03390155282885682</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01596440860131307</v>
+      </c>
+      <c r="H34">
+        <v>-0.00729206473533006</v>
+      </c>
+      <c r="I34">
+        <v>0.02078373587470126</v>
+      </c>
+      <c r="J34">
+        <v>-0.01024673519479015</v>
+      </c>
+      <c r="K34">
+        <v>0.006520867210148999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002863570415229196</v>
+        <v>0.01041040606653426</v>
       </c>
       <c r="C35">
-        <v>0.02397100200024811</v>
+        <v>-0.0436680364444164</v>
       </c>
       <c r="D35">
-        <v>-0.00917470777256967</v>
+        <v>0.02358404098119907</v>
       </c>
       <c r="E35">
-        <v>0.009644572003592887</v>
+        <v>-0.01316037810644072</v>
       </c>
       <c r="F35">
-        <v>-0.006404637650245623</v>
+        <v>-0.00541869232351188</v>
       </c>
       <c r="G35">
-        <v>0.03068069260461279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04458069600794953</v>
+      </c>
+      <c r="H35">
+        <v>-0.1479154917494684</v>
+      </c>
+      <c r="I35">
+        <v>0.03227023832209001</v>
+      </c>
+      <c r="J35">
+        <v>0.0198236868432933</v>
+      </c>
+      <c r="K35">
+        <v>0.1578176313172155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.003025983969851653</v>
+        <v>0.01639552901792624</v>
       </c>
       <c r="C36">
-        <v>0.05211088692215065</v>
+        <v>-0.04893131464489837</v>
       </c>
       <c r="D36">
-        <v>-0.04845310569877886</v>
+        <v>0.04935368934590041</v>
       </c>
       <c r="E36">
-        <v>0.005781814594305067</v>
+        <v>-0.002447220396769787</v>
       </c>
       <c r="F36">
-        <v>-0.0001327802439818623</v>
+        <v>-0.003331196976349772</v>
       </c>
       <c r="G36">
-        <v>0.01777832178720068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.003632566517326788</v>
+      </c>
+      <c r="H36">
+        <v>-0.07379973731782934</v>
+      </c>
+      <c r="I36">
+        <v>0.01749680647208996</v>
+      </c>
+      <c r="J36">
+        <v>-0.01129248620170139</v>
+      </c>
+      <c r="K36">
+        <v>-0.03712047158723533</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02979854230776751</v>
+        <v>0.01248653639941809</v>
       </c>
       <c r="C38">
-        <v>0.05971047803407185</v>
+        <v>-0.06166550555189416</v>
       </c>
       <c r="D38">
-        <v>-0.05255597082343366</v>
+        <v>0.04413525201214596</v>
       </c>
       <c r="E38">
-        <v>-0.006208002177077106</v>
+        <v>0.02768570477293775</v>
       </c>
       <c r="F38">
-        <v>-0.01555454377700312</v>
+        <v>-0.01263274246963455</v>
       </c>
       <c r="G38">
-        <v>0.01065546594478605</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.003289141517083204</v>
+      </c>
+      <c r="H38">
+        <v>-0.07889363299239049</v>
+      </c>
+      <c r="I38">
+        <v>-0.03282818221871135</v>
+      </c>
+      <c r="J38">
+        <v>0.05657134576394852</v>
+      </c>
+      <c r="K38">
+        <v>0.04455639612006347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.001892555286542495</v>
+        <v>0.01718924933213848</v>
       </c>
       <c r="C39">
-        <v>0.129852268816613</v>
+        <v>-0.1283453643844486</v>
       </c>
       <c r="D39">
-        <v>-0.04917571203746675</v>
+        <v>0.0582056721378091</v>
       </c>
       <c r="E39">
-        <v>0.008277224498817961</v>
+        <v>-0.01193748930575811</v>
       </c>
       <c r="F39">
-        <v>-0.02477806466970438</v>
+        <v>0.002103798781497513</v>
       </c>
       <c r="G39">
-        <v>0.07717476322756471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0407078827865863</v>
+      </c>
+      <c r="H39">
+        <v>-0.05269147515113365</v>
+      </c>
+      <c r="I39">
+        <v>0.01814624759129323</v>
+      </c>
+      <c r="J39">
+        <v>-0.07727594686047012</v>
+      </c>
+      <c r="K39">
+        <v>-0.02803730728179354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.005534475314856578</v>
+        <v>0.01129520294180088</v>
       </c>
       <c r="C40">
-        <v>0.02380527373384854</v>
+        <v>-0.05512972401204771</v>
       </c>
       <c r="D40">
-        <v>-0.02766409536509627</v>
+        <v>0.03861692552772974</v>
       </c>
       <c r="E40">
-        <v>0.1310655337231083</v>
+        <v>-0.03248963736914937</v>
       </c>
       <c r="F40">
-        <v>-0.08231186887212012</v>
+        <v>-0.04051768013514129</v>
       </c>
       <c r="G40">
-        <v>0.05906781091453528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1521434762072487</v>
+      </c>
+      <c r="H40">
+        <v>-0.03383506510569342</v>
+      </c>
+      <c r="I40">
+        <v>0.03724961786463787</v>
+      </c>
+      <c r="J40">
+        <v>0.0220930630638054</v>
+      </c>
+      <c r="K40">
+        <v>0.2692041300994567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01227664313257275</v>
+        <v>0.02220079763347395</v>
       </c>
       <c r="C41">
-        <v>0.02234947530398194</v>
+        <v>-0.04789031180175102</v>
       </c>
       <c r="D41">
-        <v>-0.005764402140209538</v>
+        <v>0.01790030769765182</v>
       </c>
       <c r="E41">
-        <v>-0.0159227866825199</v>
+        <v>-0.0005615089612893893</v>
       </c>
       <c r="F41">
-        <v>0.03379028128494162</v>
+        <v>0.02364705515152713</v>
       </c>
       <c r="G41">
-        <v>-0.03078542956459612</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008028352061975705</v>
+      </c>
+      <c r="H41">
+        <v>-0.01990705806427773</v>
+      </c>
+      <c r="I41">
+        <v>-0.003611148582036526</v>
+      </c>
+      <c r="J41">
+        <v>0.03118939875597145</v>
+      </c>
+      <c r="K41">
+        <v>0.0520965666588863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.002790632766111134</v>
+        <v>0.01858660531547453</v>
       </c>
       <c r="C43">
-        <v>0.02362673148558708</v>
+        <v>-0.04462542056873834</v>
       </c>
       <c r="D43">
-        <v>-0.01319916578414721</v>
+        <v>0.03024159572012717</v>
       </c>
       <c r="E43">
-        <v>-0.008156801473639428</v>
+        <v>0.008350827918397603</v>
       </c>
       <c r="F43">
-        <v>-0.002749312435468863</v>
+        <v>0.01243874934367587</v>
       </c>
       <c r="G43">
-        <v>-0.0009608164245608227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0001910477702056866</v>
+      </c>
+      <c r="H43">
+        <v>-0.03848539698352944</v>
+      </c>
+      <c r="I43">
+        <v>-0.001311794887574858</v>
+      </c>
+      <c r="J43">
+        <v>0.002202617742964597</v>
+      </c>
+      <c r="K43">
+        <v>0.04088740914959633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02252471455156938</v>
+        <v>0.01414502082832038</v>
       </c>
       <c r="C44">
-        <v>0.1007228998430781</v>
+        <v>-0.0976123806085806</v>
       </c>
       <c r="D44">
-        <v>-0.02685077954511751</v>
+        <v>0.05918606780183492</v>
       </c>
       <c r="E44">
-        <v>0.04198585580954858</v>
+        <v>0.02734838726034594</v>
       </c>
       <c r="F44">
-        <v>-0.06135655656173963</v>
+        <v>-0.06374651533590713</v>
       </c>
       <c r="G44">
-        <v>0.04763196769526049</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0466095580116733</v>
+      </c>
+      <c r="H44">
+        <v>-0.0537406418697577</v>
+      </c>
+      <c r="I44">
+        <v>0.01023638923355187</v>
+      </c>
+      <c r="J44">
+        <v>-0.04615586308652332</v>
+      </c>
+      <c r="K44">
+        <v>-0.08478829082356462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.008442780204387686</v>
+        <v>0.004077186558159064</v>
       </c>
       <c r="C46">
-        <v>0.06541725794266594</v>
+        <v>-0.06354569604846272</v>
       </c>
       <c r="D46">
-        <v>-0.04457827034452943</v>
+        <v>0.03133920734810437</v>
       </c>
       <c r="E46">
-        <v>0.02836910961724842</v>
+        <v>-0.01026177299026927</v>
       </c>
       <c r="F46">
-        <v>-0.01238938416927778</v>
+        <v>0.01072320692189506</v>
       </c>
       <c r="G46">
-        <v>0.05600755532944515</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03772458019453831</v>
+      </c>
+      <c r="H46">
+        <v>-0.101650131573736</v>
+      </c>
+      <c r="I46">
+        <v>-0.01792859972912436</v>
+      </c>
+      <c r="J46">
+        <v>-0.008117562404351972</v>
+      </c>
+      <c r="K46">
+        <v>0.0772465173934937</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.004962746602723924</v>
+        <v>0.02279187480430037</v>
       </c>
       <c r="C47">
-        <v>0.07346721635061121</v>
+        <v>-0.07992677948150113</v>
       </c>
       <c r="D47">
-        <v>-0.03893425383529271</v>
+        <v>0.0432057861139199</v>
       </c>
       <c r="E47">
-        <v>-0.01852916146644431</v>
+        <v>-0.008887343771124222</v>
       </c>
       <c r="F47">
-        <v>0.0380164943598429</v>
+        <v>0.01957648320032173</v>
       </c>
       <c r="G47">
-        <v>0.04921462663780342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.009539272355841745</v>
+      </c>
+      <c r="H47">
+        <v>-0.07004152583949062</v>
+      </c>
+      <c r="I47">
+        <v>-0.008422106639487432</v>
+      </c>
+      <c r="J47">
+        <v>0.02764883548888194</v>
+      </c>
+      <c r="K47">
+        <v>0.03360259402401876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.00894500484292487</v>
+        <v>0.02219668252763536</v>
       </c>
       <c r="C48">
-        <v>0.05591409456754273</v>
+        <v>-0.05101566373027117</v>
       </c>
       <c r="D48">
-        <v>-0.0566918387092462</v>
+        <v>0.05595056295285143</v>
       </c>
       <c r="E48">
-        <v>0.002226873103618809</v>
+        <v>0.003496449020119228</v>
       </c>
       <c r="F48">
-        <v>-0.00549427318268688</v>
+        <v>0.005597357179508385</v>
       </c>
       <c r="G48">
-        <v>0.02326467971693603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.004581767579736316</v>
+      </c>
+      <c r="H48">
+        <v>-0.09406895641342999</v>
+      </c>
+      <c r="I48">
+        <v>0.04575083017867709</v>
+      </c>
+      <c r="J48">
+        <v>-0.0182466380189795</v>
+      </c>
+      <c r="K48">
+        <v>-0.08942154147549922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.00753180032421395</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02637287249428944</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.004519643993132335</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.008045408506650847</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03328275979268028</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03175730662470128</v>
+      </c>
+      <c r="H49">
+        <v>0.02102716315523152</v>
+      </c>
+      <c r="I49">
+        <v>0.05399849390358265</v>
+      </c>
+      <c r="J49">
+        <v>-0.03446058357573961</v>
+      </c>
+      <c r="K49">
+        <v>-0.02496742910186053</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0006499110956846683</v>
+        <v>0.01548787433640589</v>
       </c>
       <c r="C50">
-        <v>0.06934342099938275</v>
+        <v>-0.08023210159650626</v>
       </c>
       <c r="D50">
-        <v>-0.03267535811771048</v>
+        <v>0.03301769287922684</v>
       </c>
       <c r="E50">
-        <v>-0.002085127726581436</v>
+        <v>0.005203388488167219</v>
       </c>
       <c r="F50">
-        <v>-0.003395914162388961</v>
+        <v>-0.00397916071773131</v>
       </c>
       <c r="G50">
-        <v>0.0271569040458055</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.007279639444435776</v>
+      </c>
+      <c r="H50">
+        <v>-0.0520499777575781</v>
+      </c>
+      <c r="I50">
+        <v>0.007832725105738252</v>
+      </c>
+      <c r="J50">
+        <v>0.05202145065587973</v>
+      </c>
+      <c r="K50">
+        <v>0.02168527090536083</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.002822539873341005</v>
+        <v>-0.006417047735462413</v>
       </c>
       <c r="C51">
-        <v>0.07965881080953312</v>
+        <v>-0.03691265198194282</v>
       </c>
       <c r="D51">
-        <v>-0.009093279716175481</v>
+        <v>0.02269121139406466</v>
       </c>
       <c r="E51">
-        <v>0.05174172437429042</v>
+        <v>-0.01103631683401944</v>
       </c>
       <c r="F51">
-        <v>-0.05979073219320191</v>
+        <v>-0.02884686701812142</v>
       </c>
       <c r="G51">
-        <v>0.01186035971705389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02807408956443058</v>
+      </c>
+      <c r="H51">
+        <v>-0.09887977669629434</v>
+      </c>
+      <c r="I51">
+        <v>0.03967602413784282</v>
+      </c>
+      <c r="J51">
+        <v>-0.001995076188402636</v>
+      </c>
+      <c r="K51">
+        <v>-0.1062744792910396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03702529580863006</v>
+        <v>0.05723558840758948</v>
       </c>
       <c r="C53">
-        <v>0.1334886078790234</v>
+        <v>-0.1311167019518422</v>
       </c>
       <c r="D53">
-        <v>-0.06594484592705346</v>
+        <v>0.05760794270995977</v>
       </c>
       <c r="E53">
-        <v>-0.1252394559064356</v>
+        <v>-0.0174384811755113</v>
       </c>
       <c r="F53">
-        <v>0.0775025095100516</v>
+        <v>0.0733346859057485</v>
       </c>
       <c r="G53">
-        <v>-0.03104592818828712</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08478668224936438</v>
+      </c>
+      <c r="H53">
+        <v>0.03273751386894504</v>
+      </c>
+      <c r="I53">
+        <v>0.00583843574618802</v>
+      </c>
+      <c r="J53">
+        <v>0.03844450445570135</v>
+      </c>
+      <c r="K53">
+        <v>0.01544202939529494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.002370932968984424</v>
+        <v>0.01837820695322287</v>
       </c>
       <c r="C54">
-        <v>0.06218955438715142</v>
+        <v>-0.07481286355858267</v>
       </c>
       <c r="D54">
-        <v>-0.008921560567754408</v>
+        <v>0.01316739718152324</v>
       </c>
       <c r="E54">
-        <v>-0.02704424183455268</v>
+        <v>-0.008096692175926375</v>
       </c>
       <c r="F54">
-        <v>-0.007459241844052682</v>
+        <v>0.02275915995977455</v>
       </c>
       <c r="G54">
-        <v>0.01717813699348347</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0184091281546677</v>
+      </c>
+      <c r="H54">
+        <v>-0.04673142131325623</v>
+      </c>
+      <c r="I54">
+        <v>0.03164288121327923</v>
+      </c>
+      <c r="J54">
+        <v>-0.01604728207277009</v>
+      </c>
+      <c r="K54">
+        <v>0.003966517290951255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01869705323127996</v>
+        <v>0.03147698194211703</v>
       </c>
       <c r="C55">
-        <v>0.08473720269638786</v>
+        <v>-0.08373858731960787</v>
       </c>
       <c r="D55">
-        <v>-0.06604557264941512</v>
+        <v>0.0549505401530187</v>
       </c>
       <c r="E55">
-        <v>-0.05541320522655611</v>
+        <v>-0.006490882077309713</v>
       </c>
       <c r="F55">
-        <v>0.05225029412955681</v>
+        <v>0.05445070946154143</v>
       </c>
       <c r="G55">
-        <v>0.006182469283289508</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04044481137455724</v>
+      </c>
+      <c r="H55">
+        <v>0.01898423229363612</v>
+      </c>
+      <c r="I55">
+        <v>0.0132698754306111</v>
+      </c>
+      <c r="J55">
+        <v>-0.008128899305826191</v>
+      </c>
+      <c r="K55">
+        <v>0.007050332067059934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01960497683718706</v>
+        <v>0.04439064504425583</v>
       </c>
       <c r="C56">
-        <v>0.1635978057500832</v>
+        <v>-0.149722749794806</v>
       </c>
       <c r="D56">
-        <v>-0.06190364776429891</v>
+        <v>0.08141393154091413</v>
       </c>
       <c r="E56">
-        <v>-0.1118351969361086</v>
+        <v>-0.04620700012959625</v>
       </c>
       <c r="F56">
-        <v>0.1183514721711955</v>
+        <v>0.09615939512260137</v>
       </c>
       <c r="G56">
-        <v>-0.07324091424036094</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1631639040535067</v>
+      </c>
+      <c r="H56">
+        <v>0.04787364768209663</v>
+      </c>
+      <c r="I56">
+        <v>0.03072513011500189</v>
+      </c>
+      <c r="J56">
+        <v>0.02050534838003154</v>
+      </c>
+      <c r="K56">
+        <v>-0.01246956907909658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.0263278763031899</v>
+        <v>0.02148510672125941</v>
       </c>
       <c r="C58">
-        <v>0.2990331622911847</v>
+        <v>-0.184276166860186</v>
       </c>
       <c r="D58">
-        <v>0.04153682825866836</v>
+        <v>0.04358939446004673</v>
       </c>
       <c r="E58">
-        <v>0.1574545880941755</v>
+        <v>0.04324936382842853</v>
       </c>
       <c r="F58">
-        <v>-0.2739468814821178</v>
+        <v>-0.3131348955092035</v>
       </c>
       <c r="G58">
-        <v>-0.1849036257994865</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.08147239894701468</v>
+      </c>
+      <c r="H58">
+        <v>-0.06597095055569523</v>
+      </c>
+      <c r="I58">
+        <v>-0.02170644872997658</v>
+      </c>
+      <c r="J58">
+        <v>0.0399380043678114</v>
+      </c>
+      <c r="K58">
+        <v>-0.3713461255227183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2831730943184128</v>
+        <v>0.2892197031072524</v>
       </c>
       <c r="C59">
-        <v>0.003590127098093699</v>
+        <v>0.0444920719548346</v>
       </c>
       <c r="D59">
-        <v>0.02991500818171795</v>
+        <v>-0.005003723849765476</v>
       </c>
       <c r="E59">
-        <v>0.05558851083748394</v>
+        <v>-0.0165555943483995</v>
       </c>
       <c r="F59">
-        <v>0.04242666673958238</v>
+        <v>-0.04684015147759605</v>
       </c>
       <c r="G59">
-        <v>0.01252683623698516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001994834439359034</v>
+      </c>
+      <c r="H59">
+        <v>0.02057676272779648</v>
+      </c>
+      <c r="I59">
+        <v>-0.02464665817774274</v>
+      </c>
+      <c r="J59">
+        <v>0.02280847072760303</v>
+      </c>
+      <c r="K59">
+        <v>0.02616439050917051</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1029992905027165</v>
+        <v>0.1447331607201152</v>
       </c>
       <c r="C60">
-        <v>0.1439631276119196</v>
+        <v>-0.1519457052428879</v>
       </c>
       <c r="D60">
-        <v>-0.0752183244311161</v>
+        <v>0.04929338209982367</v>
       </c>
       <c r="E60">
-        <v>-0.03657762739803207</v>
+        <v>-0.04158017716067559</v>
       </c>
       <c r="F60">
-        <v>0.09561867117008743</v>
+        <v>0.1174103963429373</v>
       </c>
       <c r="G60">
-        <v>0.3160117513650547</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2573734462102598</v>
+      </c>
+      <c r="H60">
+        <v>0.2391614553147707</v>
+      </c>
+      <c r="I60">
+        <v>0.001777467576511278</v>
+      </c>
+      <c r="J60">
+        <v>-0.02170915496862146</v>
+      </c>
+      <c r="K60">
+        <v>-0.03872865093050364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.00116957482139776</v>
+        <v>0.02054185439336697</v>
       </c>
       <c r="C61">
-        <v>0.08315648871182341</v>
+        <v>-0.09633197726221374</v>
       </c>
       <c r="D61">
-        <v>-0.05559527870116109</v>
+        <v>0.05441575279216954</v>
       </c>
       <c r="E61">
-        <v>-0.02138105787573205</v>
+        <v>-0.01173663554989914</v>
       </c>
       <c r="F61">
-        <v>0.005807866880545392</v>
+        <v>0.03132141098524694</v>
       </c>
       <c r="G61">
-        <v>0.08076645500476426</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02564362680471291</v>
+      </c>
+      <c r="H61">
+        <v>-0.05748068972905963</v>
+      </c>
+      <c r="I61">
+        <v>0.03302922919560625</v>
+      </c>
+      <c r="J61">
+        <v>-0.02283408061068847</v>
+      </c>
+      <c r="K61">
+        <v>0.01793649380330403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002519702718292284</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01332231344261432</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003886584312711448</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.008191089182748553</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01418794495001226</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01731839871990112</v>
+      </c>
+      <c r="H62">
+        <v>-0.003279261338578262</v>
+      </c>
+      <c r="I62">
+        <v>0.05671688535014429</v>
+      </c>
+      <c r="J62">
+        <v>0.02875218546392223</v>
+      </c>
+      <c r="K62">
+        <v>0.009050732951325921</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.005018940535658808</v>
+        <v>0.02650285549445647</v>
       </c>
       <c r="C63">
-        <v>0.06007240077778468</v>
+        <v>-0.06703566550390944</v>
       </c>
       <c r="D63">
-        <v>-0.04259506269481204</v>
+        <v>0.0613102789899246</v>
       </c>
       <c r="E63">
-        <v>-0.02626499619029216</v>
+        <v>-0.009230435086678677</v>
       </c>
       <c r="F63">
-        <v>-0.006735403287978505</v>
+        <v>0.01996395500916889</v>
       </c>
       <c r="G63">
-        <v>0.0271087906322832</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.002620715434851105</v>
+      </c>
+      <c r="H63">
+        <v>-0.05743818494953255</v>
+      </c>
+      <c r="I63">
+        <v>0.04015482753272074</v>
+      </c>
+      <c r="J63">
+        <v>-0.004230737476428325</v>
+      </c>
+      <c r="K63">
+        <v>0.01616871818879832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.001910803197328868</v>
+        <v>0.01472942111032531</v>
       </c>
       <c r="C64">
-        <v>0.07971561191034893</v>
+        <v>-0.09122086348882802</v>
       </c>
       <c r="D64">
-        <v>-0.06803383773382628</v>
+        <v>0.03456945493588691</v>
       </c>
       <c r="E64">
-        <v>0.007587835137785227</v>
+        <v>0.02688653106100167</v>
       </c>
       <c r="F64">
-        <v>-0.02615153938598872</v>
+        <v>-0.02410053925611369</v>
       </c>
       <c r="G64">
-        <v>0.05291428249280703</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06808640894826874</v>
+      </c>
+      <c r="H64">
+        <v>-0.05270963793600343</v>
+      </c>
+      <c r="I64">
+        <v>0.03206016112022569</v>
+      </c>
+      <c r="J64">
+        <v>-0.03897981983433606</v>
+      </c>
+      <c r="K64">
+        <v>0.02276465611612282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.008974610868749448</v>
+        <v>0.02983249309894664</v>
       </c>
       <c r="C65">
-        <v>0.0831327626990177</v>
+        <v>-0.09619178617698819</v>
       </c>
       <c r="D65">
-        <v>-0.02778858782032391</v>
+        <v>0.022324592190255</v>
       </c>
       <c r="E65">
-        <v>0.03542121843172329</v>
+        <v>0.010717653061559</v>
       </c>
       <c r="F65">
-        <v>-0.02303477436231395</v>
+        <v>0.0004219008376557475</v>
       </c>
       <c r="G65">
-        <v>0.03084641658130815</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.09131728042095816</v>
+      </c>
+      <c r="H65">
+        <v>-0.005711013207034182</v>
+      </c>
+      <c r="I65">
+        <v>-0.006557869747179603</v>
+      </c>
+      <c r="J65">
+        <v>-0.09426482193219554</v>
+      </c>
+      <c r="K65">
+        <v>-0.08760875695131273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.00205348050922162</v>
+        <v>0.01386728056391314</v>
       </c>
       <c r="C66">
-        <v>0.1720777143947324</v>
+        <v>-0.1658904611121756</v>
       </c>
       <c r="D66">
-        <v>-0.02988834535313709</v>
+        <v>0.04857299237853745</v>
       </c>
       <c r="E66">
-        <v>0.04850507079392157</v>
+        <v>-0.01816970641489093</v>
       </c>
       <c r="F66">
-        <v>-0.01882798209138152</v>
+        <v>-0.01026417197303989</v>
       </c>
       <c r="G66">
-        <v>0.09910098659451191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02652167420033967</v>
+      </c>
+      <c r="H66">
+        <v>-0.0644380605444366</v>
+      </c>
+      <c r="I66">
+        <v>0.02623802713621324</v>
+      </c>
+      <c r="J66">
+        <v>-0.05133016661268926</v>
+      </c>
+      <c r="K66">
+        <v>-0.02371187833398417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02775838993056614</v>
+        <v>0.0208317256518658</v>
       </c>
       <c r="C67">
-        <v>0.0359333800299859</v>
+        <v>-0.05128241646503717</v>
       </c>
       <c r="D67">
-        <v>-0.06903772445741498</v>
+        <v>0.0457614919437902</v>
       </c>
       <c r="E67">
-        <v>-0.03763248764176583</v>
+        <v>0.02374529319511427</v>
       </c>
       <c r="F67">
-        <v>-0.000278028053252463</v>
+        <v>0.02332660568587549</v>
       </c>
       <c r="G67">
-        <v>0.02375311504757412</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02107651766270227</v>
+      </c>
+      <c r="H67">
+        <v>-0.05491182531279593</v>
+      </c>
+      <c r="I67">
+        <v>-0.04515139733559114</v>
+      </c>
+      <c r="J67">
+        <v>0.04539974450998231</v>
+      </c>
+      <c r="K67">
+        <v>0.05685320647975565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2938344153378881</v>
+        <v>0.296309561726958</v>
       </c>
       <c r="C68">
-        <v>-0.02334941228330381</v>
+        <v>0.06720020712500691</v>
       </c>
       <c r="D68">
-        <v>0.02074033772830012</v>
+        <v>-0.0233607929497545</v>
       </c>
       <c r="E68">
-        <v>0.03079177077057461</v>
+        <v>-0.00674003990489067</v>
       </c>
       <c r="F68">
-        <v>-0.01121948465473429</v>
+        <v>-0.0352616529872416</v>
       </c>
       <c r="G68">
-        <v>-0.008548649724343811</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02064369180587735</v>
+      </c>
+      <c r="H68">
+        <v>-0.02526617067297137</v>
+      </c>
+      <c r="I68">
+        <v>0.04760088989026109</v>
+      </c>
+      <c r="J68">
+        <v>0.0566891813489116</v>
+      </c>
+      <c r="K68">
+        <v>-0.002459765596559746</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01462981487412808</v>
+        <v>0.00814903057113938</v>
       </c>
       <c r="C69">
-        <v>0.05268381921889774</v>
+        <v>-0.04858953266322794</v>
       </c>
       <c r="D69">
-        <v>-0.0468455360431238</v>
+        <v>0.02258697746136189</v>
       </c>
       <c r="E69">
-        <v>-0.02138654993635104</v>
+        <v>-0.00231897354927082</v>
       </c>
       <c r="F69">
-        <v>0.00259555066165996</v>
+        <v>0.01389433931014816</v>
       </c>
       <c r="G69">
-        <v>0.02859247890264027</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02927990824258039</v>
+      </c>
+      <c r="H69">
+        <v>-0.03918327705695177</v>
+      </c>
+      <c r="I69">
+        <v>-0.001183528612071048</v>
+      </c>
+      <c r="J69">
+        <v>0.02743134090782532</v>
+      </c>
+      <c r="K69">
+        <v>0.003255642095656216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2841989206296211</v>
+        <v>0.277465998702989</v>
       </c>
       <c r="C71">
-        <v>-0.03555482985472142</v>
+        <v>0.0726072723952523</v>
       </c>
       <c r="D71">
-        <v>0.02826561089845216</v>
+        <v>-0.02157186341954868</v>
       </c>
       <c r="E71">
-        <v>0.01657502887833934</v>
+        <v>0.01410436997393579</v>
       </c>
       <c r="F71">
-        <v>-0.02694931098191084</v>
+        <v>-0.05965958977135481</v>
       </c>
       <c r="G71">
-        <v>-0.002089986434177716</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02611329798671419</v>
+      </c>
+      <c r="H71">
+        <v>-0.05161067113463619</v>
+      </c>
+      <c r="I71">
+        <v>-0.00348793968342227</v>
+      </c>
+      <c r="J71">
+        <v>0.1222704746486303</v>
+      </c>
+      <c r="K71">
+        <v>-0.0355404816991515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.02273127814821014</v>
+        <v>0.05357428177464144</v>
       </c>
       <c r="C72">
-        <v>0.1550270316152516</v>
+        <v>-0.1412733184755171</v>
       </c>
       <c r="D72">
-        <v>-0.06227734426263276</v>
+        <v>0.04785842164606949</v>
       </c>
       <c r="E72">
-        <v>0.004480680556334627</v>
+        <v>-0.01489874003643828</v>
       </c>
       <c r="F72">
-        <v>-0.08416270044315288</v>
+        <v>0.0413406714664168</v>
       </c>
       <c r="G72">
-        <v>0.1213561691082265</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02225846778698384</v>
+      </c>
+      <c r="H72">
+        <v>-0.0368752769727906</v>
+      </c>
+      <c r="I72">
+        <v>0.0323972235169977</v>
+      </c>
+      <c r="J72">
+        <v>-0.1262401109703027</v>
+      </c>
+      <c r="K72">
+        <v>-0.0787052777767511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.06876798192495072</v>
+        <v>0.1495705316416039</v>
       </c>
       <c r="C73">
-        <v>0.1140496005028613</v>
+        <v>-0.1949551195855786</v>
       </c>
       <c r="D73">
-        <v>-0.114838133832144</v>
+        <v>0.08563599899535101</v>
       </c>
       <c r="E73">
-        <v>-0.1310823042194817</v>
+        <v>-0.01579206924663649</v>
       </c>
       <c r="F73">
-        <v>0.1054183972609007</v>
+        <v>0.241162226457812</v>
       </c>
       <c r="G73">
-        <v>0.4360601286358656</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3841334201430646</v>
+      </c>
+      <c r="H73">
+        <v>0.3006329088417661</v>
+      </c>
+      <c r="I73">
+        <v>-0.08442555928375425</v>
+      </c>
+      <c r="J73">
+        <v>0.06995725807099235</v>
+      </c>
+      <c r="K73">
+        <v>-0.07659560367729859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.009691281540270991</v>
+        <v>0.03882948622685337</v>
       </c>
       <c r="C74">
-        <v>0.08824738372715621</v>
+        <v>-0.1002582343784913</v>
       </c>
       <c r="D74">
-        <v>-0.07169721712435655</v>
+        <v>0.04884339899039599</v>
       </c>
       <c r="E74">
-        <v>-0.07385440700955617</v>
+        <v>0.007229075123815162</v>
       </c>
       <c r="F74">
-        <v>0.06003687148610224</v>
+        <v>0.04247819441582654</v>
       </c>
       <c r="G74">
-        <v>-0.0186884490153104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04618147984696878</v>
+      </c>
+      <c r="H74">
+        <v>0.007783137235960407</v>
+      </c>
+      <c r="I74">
+        <v>0.04795238266629642</v>
+      </c>
+      <c r="J74">
+        <v>0.01457946861817846</v>
+      </c>
+      <c r="K74">
+        <v>-0.02770058889070494</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.05041502435116904</v>
+        <v>0.06270121983014099</v>
       </c>
       <c r="C75">
-        <v>0.1482776600652952</v>
+        <v>-0.1655877108270864</v>
       </c>
       <c r="D75">
-        <v>-0.08687613448918757</v>
+        <v>0.08574370437707395</v>
       </c>
       <c r="E75">
-        <v>-0.1750838162130985</v>
+        <v>0.03821996062519001</v>
       </c>
       <c r="F75">
-        <v>0.1044193675877051</v>
+        <v>0.1181718108438256</v>
       </c>
       <c r="G75">
-        <v>-0.1552620751970641</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2306035216004816</v>
+      </c>
+      <c r="H75">
+        <v>0.0369407656301509</v>
+      </c>
+      <c r="I75">
+        <v>-0.0005643551203922171</v>
+      </c>
+      <c r="J75">
+        <v>0.1235354315930859</v>
+      </c>
+      <c r="K75">
+        <v>0.1011774184034365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.0167114885690419</v>
+        <v>0.0410420871298958</v>
       </c>
       <c r="C76">
-        <v>0.1064223922303704</v>
+        <v>-0.1213614127351674</v>
       </c>
       <c r="D76">
-        <v>-0.0676327106916737</v>
+        <v>0.07424781587047363</v>
       </c>
       <c r="E76">
-        <v>-0.08324838133301707</v>
+        <v>-0.01408250026472081</v>
       </c>
       <c r="F76">
-        <v>0.08561390699735506</v>
+        <v>0.08811750654699091</v>
       </c>
       <c r="G76">
-        <v>-0.02759484791673177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.08225240510262508</v>
+      </c>
+      <c r="H76">
+        <v>0.02345364578577688</v>
+      </c>
+      <c r="I76">
+        <v>0.06076497967765089</v>
+      </c>
+      <c r="J76">
+        <v>-0.005911620601391595</v>
+      </c>
+      <c r="K76">
+        <v>0.03672201135751701</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.07143978453735722</v>
+        <v>0.05242553748719361</v>
       </c>
       <c r="C77">
-        <v>0.3234730859057286</v>
+        <v>-0.4045249529340591</v>
       </c>
       <c r="D77">
-        <v>0.8498886309988646</v>
+        <v>-0.8973116729091684</v>
       </c>
       <c r="E77">
-        <v>-0.3120544015917278</v>
+        <v>0.0336180092490056</v>
       </c>
       <c r="F77">
-        <v>0.03134222643201127</v>
+        <v>0.08909897485071575</v>
       </c>
       <c r="G77">
-        <v>0.06984389102099017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03248236254645714</v>
+      </c>
+      <c r="H77">
+        <v>-0.05190125111577962</v>
+      </c>
+      <c r="I77">
+        <v>0.03478286293856424</v>
+      </c>
+      <c r="J77">
+        <v>0.0146105223592432</v>
+      </c>
+      <c r="K77">
+        <v>0.004140676171899603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02204851157081448</v>
+        <v>0.03372116429562543</v>
       </c>
       <c r="C78">
-        <v>0.1452370107572221</v>
+        <v>-0.1140960713367647</v>
       </c>
       <c r="D78">
-        <v>-0.1022972441426661</v>
+        <v>0.09661277869820345</v>
       </c>
       <c r="E78">
-        <v>0.0696670398378106</v>
+        <v>-0.04713421791445035</v>
       </c>
       <c r="F78">
-        <v>0.1021763729277783</v>
+        <v>0.002454835071031369</v>
       </c>
       <c r="G78">
-        <v>-0.04315896900403509</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1181739945899915</v>
+      </c>
+      <c r="H78">
+        <v>-0.06433119526053259</v>
+      </c>
+      <c r="I78">
+        <v>-0.01573120476653433</v>
+      </c>
+      <c r="J78">
+        <v>-0.08320326993732668</v>
+      </c>
+      <c r="K78">
+        <v>-0.4358762793349854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02520687721576236</v>
+        <v>0.05416772394226196</v>
       </c>
       <c r="C79">
-        <v>0.1774147968458602</v>
+        <v>-0.1431157717054198</v>
       </c>
       <c r="D79">
-        <v>-0.1168833142660227</v>
+        <v>0.07239241937672168</v>
       </c>
       <c r="E79">
-        <v>-0.1120251419025206</v>
+        <v>-0.01791782189847367</v>
       </c>
       <c r="F79">
-        <v>0.1615210560901638</v>
+        <v>0.06864492030592731</v>
       </c>
       <c r="G79">
-        <v>-0.1843824126876315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2377472741517266</v>
+      </c>
+      <c r="H79">
+        <v>0.006559922449574851</v>
+      </c>
+      <c r="I79">
+        <v>0.02601596381678087</v>
+      </c>
+      <c r="J79">
+        <v>0.08705608235518146</v>
+      </c>
+      <c r="K79">
+        <v>-0.03947738265077724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01018756626950424</v>
+        <v>0.02055158681038936</v>
       </c>
       <c r="C80">
-        <v>0.04052169377937948</v>
+        <v>-0.04804140406509054</v>
       </c>
       <c r="D80">
-        <v>-0.05586178552817758</v>
+        <v>0.0375485668805615</v>
       </c>
       <c r="E80">
-        <v>0.01492274752112116</v>
+        <v>-0.04621974570243566</v>
       </c>
       <c r="F80">
-        <v>0.0360256862745488</v>
+        <v>-0.0286294417158759</v>
       </c>
       <c r="G80">
-        <v>-0.00917652184453586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.06636310523351485</v>
+      </c>
+      <c r="H80">
+        <v>0.03076311207031547</v>
+      </c>
+      <c r="I80">
+        <v>-0.03318900562172867</v>
+      </c>
+      <c r="J80">
+        <v>0.03456067430897008</v>
+      </c>
+      <c r="K80">
+        <v>0.07129617351756533</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.006792328479543157</v>
+        <v>0.0163805740164566</v>
       </c>
       <c r="C81">
-        <v>0.07193523219341956</v>
+        <v>-0.09797956580807128</v>
       </c>
       <c r="D81">
-        <v>-0.0787887807990672</v>
+        <v>0.05524942639689027</v>
       </c>
       <c r="E81">
-        <v>-0.0903196458000132</v>
+        <v>-0.01380075436851124</v>
       </c>
       <c r="F81">
-        <v>0.09492881023351271</v>
+        <v>0.05038278751118393</v>
       </c>
       <c r="G81">
-        <v>-0.05563550644976328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1156590061655729</v>
+      </c>
+      <c r="H81">
+        <v>-0.03886165454095505</v>
+      </c>
+      <c r="I81">
+        <v>0.02135505240869001</v>
+      </c>
+      <c r="J81">
+        <v>0.05881578061068187</v>
+      </c>
+      <c r="K81">
+        <v>0.02650701880349438</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.02300670285091472</v>
+        <v>0.04456791077680154</v>
       </c>
       <c r="C82">
-        <v>0.08124744878139194</v>
+        <v>-0.1007175432053153</v>
       </c>
       <c r="D82">
-        <v>-0.07471811808835488</v>
+        <v>0.06747556140358826</v>
       </c>
       <c r="E82">
-        <v>-0.1039575042222197</v>
+        <v>-0.01937965562434935</v>
       </c>
       <c r="F82">
-        <v>0.08064411980362617</v>
+        <v>0.07878899159077853</v>
       </c>
       <c r="G82">
-        <v>-0.01661478695052783</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.09279314278150427</v>
+      </c>
+      <c r="H82">
+        <v>-0.001225912900935352</v>
+      </c>
+      <c r="I82">
+        <v>0.02042493200297209</v>
+      </c>
+      <c r="J82">
+        <v>0.01564461633237466</v>
+      </c>
+      <c r="K82">
+        <v>0.01327525089418518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.001272542210682702</v>
+        <v>-0.001669235080161855</v>
       </c>
       <c r="C83">
-        <v>0.02501057473432017</v>
+        <v>0.02406927681880255</v>
       </c>
       <c r="D83">
-        <v>0.1925504299120066</v>
+        <v>-0.06860426570702315</v>
       </c>
       <c r="E83">
-        <v>0.5818776140101555</v>
+        <v>-0.9526335145426122</v>
       </c>
       <c r="F83">
-        <v>0.7143727956356236</v>
+        <v>-0.1286485244361795</v>
       </c>
       <c r="G83">
-        <v>0.01048499692457818</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.03959960655568062</v>
+      </c>
+      <c r="H83">
+        <v>0.09883115303350064</v>
+      </c>
+      <c r="I83">
+        <v>0.02050881841974699</v>
+      </c>
+      <c r="J83">
+        <v>-0.06458123394758365</v>
+      </c>
+      <c r="K83">
+        <v>-0.01057811507222776</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.004972618197655305</v>
+        <v>-0.000313714603517878</v>
       </c>
       <c r="C84">
-        <v>0.07339341424969678</v>
+        <v>-0.04616585219910022</v>
       </c>
       <c r="D84">
-        <v>-0.04404672204675322</v>
+        <v>0.06626823306530884</v>
       </c>
       <c r="E84">
-        <v>0.06444511041328604</v>
+        <v>0.02476075061130177</v>
       </c>
       <c r="F84">
-        <v>-0.1438828419305942</v>
+        <v>-0.08969474097892856</v>
       </c>
       <c r="G84">
-        <v>-0.07937581020855305</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.0439373527445546</v>
+      </c>
+      <c r="H84">
+        <v>-0.08786428680310435</v>
+      </c>
+      <c r="I84">
+        <v>0.0812516287455763</v>
+      </c>
+      <c r="J84">
+        <v>-0.1055998188191407</v>
+      </c>
+      <c r="K84">
+        <v>0.07711806126776451</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.01157746389428563</v>
+        <v>0.02821802571907821</v>
       </c>
       <c r="C85">
-        <v>0.1287774008801603</v>
+        <v>-0.1168472757493674</v>
       </c>
       <c r="D85">
-        <v>-0.08714434662926211</v>
+        <v>0.08148870724027286</v>
       </c>
       <c r="E85">
-        <v>-0.1184413188524585</v>
+        <v>-0.0180212378913056</v>
       </c>
       <c r="F85">
-        <v>0.1475728416820717</v>
+        <v>0.1330486950911237</v>
       </c>
       <c r="G85">
-        <v>-0.1243159108753134</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2176493188525634</v>
+      </c>
+      <c r="H85">
+        <v>0.05303629434904215</v>
+      </c>
+      <c r="I85">
+        <v>0.0896952070157572</v>
+      </c>
+      <c r="J85">
+        <v>0.09505124126187889</v>
+      </c>
+      <c r="K85">
+        <v>0.05842237949242276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01595827636119256</v>
+        <v>0.01439783694025943</v>
       </c>
       <c r="C86">
-        <v>0.07710489150003928</v>
+        <v>-0.08275955895634744</v>
       </c>
       <c r="D86">
-        <v>0.02977253204766498</v>
+        <v>0.03034147916705549</v>
       </c>
       <c r="E86">
-        <v>0.01668490141875204</v>
+        <v>0.004958430074669207</v>
       </c>
       <c r="F86">
-        <v>-0.071419613518018</v>
+        <v>-0.08532493088360787</v>
       </c>
       <c r="G86">
-        <v>0.0477962110727124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04956834532263756</v>
+      </c>
+      <c r="H86">
+        <v>-0.007037375106572792</v>
+      </c>
+      <c r="I86">
+        <v>-0.1339320699742818</v>
+      </c>
+      <c r="J86">
+        <v>0.1040341863340486</v>
+      </c>
+      <c r="K86">
+        <v>-0.1790297425678316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02795903722887708</v>
+        <v>0.02380028557054275</v>
       </c>
       <c r="C87">
-        <v>0.151698865277533</v>
+        <v>-0.1168416203973922</v>
       </c>
       <c r="D87">
-        <v>-0.02277855487256165</v>
+        <v>0.01627506490383885</v>
       </c>
       <c r="E87">
-        <v>0.1005872652410834</v>
+        <v>0.0131151519584887</v>
       </c>
       <c r="F87">
-        <v>-0.069694547236893</v>
+        <v>-0.06826841836570606</v>
       </c>
       <c r="G87">
-        <v>-0.02620417497602965</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.003373033506515076</v>
+      </c>
+      <c r="H87">
+        <v>-0.04615425112542077</v>
+      </c>
+      <c r="I87">
+        <v>0.08830904661790023</v>
+      </c>
+      <c r="J87">
+        <v>-0.06574100448786159</v>
+      </c>
+      <c r="K87">
+        <v>-0.07350171380215008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.00588022297759213</v>
+        <v>0.03850449469630757</v>
       </c>
       <c r="C88">
-        <v>0.03904287281539016</v>
+        <v>-0.06427220873349554</v>
       </c>
       <c r="D88">
-        <v>-0.05366777423675696</v>
+        <v>0.04209911065279923</v>
       </c>
       <c r="E88">
-        <v>-0.0548512318595131</v>
+        <v>0.006510770275744767</v>
       </c>
       <c r="F88">
-        <v>0.03017293468063196</v>
+        <v>0.02500185889268418</v>
       </c>
       <c r="G88">
-        <v>0.01687843491607767</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02784985196092637</v>
+      </c>
+      <c r="H88">
+        <v>0.001346290323119076</v>
+      </c>
+      <c r="I88">
+        <v>0.01393693595164503</v>
+      </c>
+      <c r="J88">
+        <v>0.02379856221305656</v>
+      </c>
+      <c r="K88">
+        <v>0.08453361112876333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3891602594224405</v>
+        <v>0.3913179753818635</v>
       </c>
       <c r="C89">
-        <v>-0.0792880908500988</v>
+        <v>0.1140976797119463</v>
       </c>
       <c r="D89">
-        <v>-0.1078749208178651</v>
+        <v>-0.0331746443785917</v>
       </c>
       <c r="E89">
-        <v>0.08137071545962847</v>
+        <v>0.0426005126747477</v>
       </c>
       <c r="F89">
-        <v>-0.07047356827663986</v>
+        <v>-0.05777785436049122</v>
       </c>
       <c r="G89">
-        <v>-0.07216940367176765</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04284981710918104</v>
+      </c>
+      <c r="H89">
+        <v>-0.02333096742321811</v>
+      </c>
+      <c r="I89">
+        <v>0.1669941146566701</v>
+      </c>
+      <c r="J89">
+        <v>-0.7162991592595355</v>
+      </c>
+      <c r="K89">
+        <v>0.02145385916421234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3077347528465406</v>
+        <v>0.3166159507470799</v>
       </c>
       <c r="C90">
-        <v>-0.02535998899029642</v>
+        <v>0.07332742704470631</v>
       </c>
       <c r="D90">
-        <v>0.01634032790757856</v>
+        <v>-0.0199374570030176</v>
       </c>
       <c r="E90">
-        <v>0.07537947583360477</v>
+        <v>-0.007310582868659952</v>
       </c>
       <c r="F90">
-        <v>0.0173383614629838</v>
+        <v>-0.03900602683519623</v>
       </c>
       <c r="G90">
-        <v>0.01838424011971366</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.008527018741578322</v>
+      </c>
+      <c r="H90">
+        <v>-0.0229922284366785</v>
+      </c>
+      <c r="I90">
+        <v>-0.0119567969050324</v>
+      </c>
+      <c r="J90">
+        <v>0.08732556963861947</v>
+      </c>
+      <c r="K90">
+        <v>-0.01196040989727788</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.0298062737875709</v>
+        <v>0.05261755692430729</v>
       </c>
       <c r="C91">
-        <v>0.0852325380644806</v>
+        <v>-0.08335728427770216</v>
       </c>
       <c r="D91">
-        <v>-0.05682371202514813</v>
+        <v>0.04781056050955193</v>
       </c>
       <c r="E91">
-        <v>-0.0633226145043676</v>
+        <v>-0.03897769002146588</v>
       </c>
       <c r="F91">
-        <v>0.08523534844578411</v>
+        <v>0.05611899129189362</v>
       </c>
       <c r="G91">
-        <v>-0.05373730734197431</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.08094216036619789</v>
+      </c>
+      <c r="H91">
+        <v>0.03564665548735393</v>
+      </c>
+      <c r="I91">
+        <v>0.006414181722408755</v>
+      </c>
+      <c r="J91">
+        <v>0.0004102415105949875</v>
+      </c>
+      <c r="K91">
+        <v>0.05993875418076804</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.383690729320361</v>
+        <v>0.3541265436945374</v>
       </c>
       <c r="C92">
-        <v>-0.06772272884717782</v>
+        <v>0.1185282010955181</v>
       </c>
       <c r="D92">
-        <v>0.01189895802862693</v>
+        <v>-0.05322343544111378</v>
       </c>
       <c r="E92">
-        <v>-0.0372821155539815</v>
+        <v>0.04231513567340559</v>
       </c>
       <c r="F92">
-        <v>-0.1025869938522379</v>
+        <v>-0.04766762113616612</v>
       </c>
       <c r="G92">
-        <v>-0.03068117577503748</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01592750446618525</v>
+      </c>
+      <c r="H92">
+        <v>-0.06491818515066208</v>
+      </c>
+      <c r="I92">
+        <v>-0.03715081219356735</v>
+      </c>
+      <c r="J92">
+        <v>0.1443286654730014</v>
+      </c>
+      <c r="K92">
+        <v>0.004243027330379528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3042160538847491</v>
+        <v>0.3115860486778113</v>
       </c>
       <c r="C93">
-        <v>-0.07457060010891971</v>
+        <v>0.1121983983499183</v>
       </c>
       <c r="D93">
-        <v>-0.009517935636727091</v>
+        <v>-0.00875962412857576</v>
       </c>
       <c r="E93">
-        <v>0.0600607484641298</v>
+        <v>0.004499230949694775</v>
       </c>
       <c r="F93">
-        <v>-0.0332345092791877</v>
+        <v>-0.03564981263722543</v>
       </c>
       <c r="G93">
-        <v>-0.02466160593717565</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04231199830979944</v>
+      </c>
+      <c r="H93">
+        <v>-0.03053341710751203</v>
+      </c>
+      <c r="I93">
+        <v>-0.05010608389373972</v>
+      </c>
+      <c r="J93">
+        <v>0.09140013302383657</v>
+      </c>
+      <c r="K93">
+        <v>-0.02068377212909205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.04810110691773575</v>
+        <v>0.0782342788592142</v>
       </c>
       <c r="C94">
-        <v>0.201855647916893</v>
+        <v>-0.1603510785239723</v>
       </c>
       <c r="D94">
-        <v>-0.1437433718040372</v>
+        <v>0.1041618844282706</v>
       </c>
       <c r="E94">
-        <v>-0.2385190124909296</v>
+        <v>-0.02468619542821373</v>
       </c>
       <c r="F94">
-        <v>0.2428136383846788</v>
+        <v>0.1545738639281361</v>
       </c>
       <c r="G94">
-        <v>-0.5118891938288028</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5269099948520899</v>
+      </c>
+      <c r="H94">
+        <v>0.2193371551811097</v>
+      </c>
+      <c r="I94">
+        <v>-0.08552600044294276</v>
+      </c>
+      <c r="J94">
+        <v>-0.1399247720310534</v>
+      </c>
+      <c r="K94">
+        <v>0.2277387195579662</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.03013036987054869</v>
+        <v>0.03811139733432049</v>
       </c>
       <c r="C95">
-        <v>0.09242173259718947</v>
+        <v>-0.1268969895766918</v>
       </c>
       <c r="D95">
-        <v>-0.03817534767970016</v>
+        <v>0.0611720455538963</v>
       </c>
       <c r="E95">
-        <v>-0.03161382430088139</v>
+        <v>0.01686729187916531</v>
       </c>
       <c r="F95">
-        <v>0.0700886980205576</v>
+        <v>0.07580894177034346</v>
       </c>
       <c r="G95">
-        <v>0.1097174506660368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04663908182557371</v>
+      </c>
+      <c r="H95">
+        <v>-0.07485899447648113</v>
+      </c>
+      <c r="I95">
+        <v>0.1172504395113205</v>
+      </c>
+      <c r="J95">
+        <v>-0.1462660126774843</v>
+      </c>
+      <c r="K95">
+        <v>0.2648185229161119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0008751042351177946</v>
+        <v>0.01311426040113959</v>
       </c>
       <c r="C97">
-        <v>0.0007031321630974605</v>
+        <v>-0.0171887714986009</v>
       </c>
       <c r="D97">
-        <v>-0.002082454345230964</v>
+        <v>-0.008510359351276191</v>
       </c>
       <c r="E97">
-        <v>-0.001178989253861801</v>
+        <v>0.02842691211514795</v>
       </c>
       <c r="F97">
-        <v>-0.002800047493522313</v>
+        <v>-0.008045042247765746</v>
       </c>
       <c r="G97">
-        <v>0.00229037754988306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.02387214264703662</v>
+      </c>
+      <c r="H97">
+        <v>-0.04611884013097512</v>
+      </c>
+      <c r="I97">
+        <v>-0.1354528820919906</v>
+      </c>
+      <c r="J97">
+        <v>-0.06943480037645232</v>
+      </c>
+      <c r="K97">
+        <v>0.01204102511792496</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08123911004295925</v>
+        <v>0.1297620011136972</v>
       </c>
       <c r="C98">
-        <v>0.1512327743767983</v>
+        <v>-0.1584623283471697</v>
       </c>
       <c r="D98">
-        <v>-0.1224806061316632</v>
+        <v>0.09195006199628873</v>
       </c>
       <c r="E98">
-        <v>-0.07387227773495186</v>
+        <v>-0.02851083410455887</v>
       </c>
       <c r="F98">
-        <v>0.08293500028191467</v>
+        <v>0.2179549890001858</v>
       </c>
       <c r="G98">
-        <v>0.2901924511257053</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3230848679738381</v>
+      </c>
+      <c r="H98">
+        <v>0.3263487383583971</v>
+      </c>
+      <c r="I98">
+        <v>-0.1053748482788662</v>
+      </c>
+      <c r="J98">
+        <v>0.07189768513455351</v>
+      </c>
+      <c r="K98">
+        <v>-0.08643152436273396</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01409387123013073</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.046830085411012</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.004372040483199923</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.01069662479157204</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.06355683429918609</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.05721271262897497</v>
+      </c>
+      <c r="H99">
+        <v>-0.1355281807331953</v>
+      </c>
+      <c r="I99">
+        <v>-0.8682087598976431</v>
+      </c>
+      <c r="J99">
+        <v>-0.2647133884574327</v>
+      </c>
+      <c r="K99">
+        <v>-0.01372061842468074</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.006322678558482409</v>
+        <v>0.01400692791208851</v>
       </c>
       <c r="C101">
-        <v>0.07396718695833632</v>
+        <v>-0.08072007973566951</v>
       </c>
       <c r="D101">
-        <v>-0.04446387004676255</v>
+        <v>0.05285010688583495</v>
       </c>
       <c r="E101">
-        <v>0.03412155911501361</v>
+        <v>-0.05239122889519486</v>
       </c>
       <c r="F101">
-        <v>-0.01013257371391783</v>
+        <v>-0.004722197385669009</v>
       </c>
       <c r="G101">
-        <v>0.1023954644201836</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1206338017305435</v>
+      </c>
+      <c r="H101">
+        <v>-0.2905910042122414</v>
+      </c>
+      <c r="I101">
+        <v>-0.0001161931235159908</v>
+      </c>
+      <c r="J101">
+        <v>-0.001924988770514139</v>
+      </c>
+      <c r="K101">
+        <v>0.1750079846279105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.007332967520396689</v>
+        <v>0.002886667332598605</v>
       </c>
       <c r="C102">
-        <v>0.02480938355369986</v>
+        <v>-0.009500398493360492</v>
       </c>
       <c r="D102">
-        <v>-0.002950658845651914</v>
+        <v>-0.0006455980971888938</v>
       </c>
       <c r="E102">
-        <v>-0.02100808184215358</v>
+        <v>-0.004264998190819175</v>
       </c>
       <c r="F102">
-        <v>0.02656616336771912</v>
+        <v>0.00746394440146966</v>
       </c>
       <c r="G102">
-        <v>0.01074104504099899</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.0007314877204732281</v>
+      </c>
+      <c r="H102">
+        <v>0.0003508004929027138</v>
+      </c>
+      <c r="I102">
+        <v>-0.0005234136060575954</v>
+      </c>
+      <c r="J102">
+        <v>-0.01334310825876682</v>
+      </c>
+      <c r="K102">
+        <v>-0.005957410911490098</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
